--- a/cronograma.xlsx
+++ b/cronograma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DE60F6-2EA7-4F7D-B987-D5D17DF3AF43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64F023F4-781F-4A53-BF9A-BF8465BE70F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{013D24BC-0E9E-46AC-81E6-9CD7DB8DFDFA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">actividad </t>
   </si>
@@ -60,9 +60,6 @@
     <t>programa</t>
   </si>
   <si>
-    <t>cordinador</t>
-  </si>
-  <si>
     <t>grupal</t>
   </si>
   <si>
@@ -78,10 +75,13 @@
     <t>abraham</t>
   </si>
   <si>
-    <t>alex</t>
-  </si>
-  <si>
     <t>porcentaje</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>William</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -539,7 +539,7 @@
         <v>43867</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" s="13">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>43868</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
@@ -585,7 +585,7 @@
         <v>43871</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="13">
         <v>1</v>
@@ -607,7 +607,9 @@
       <c r="C6" s="6">
         <v>43875</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="13">
         <v>1</v>
       </c>
@@ -629,7 +631,7 @@
         <v>43875</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="13">
         <v>1</v>
@@ -643,7 +645,7 @@
     </row>
     <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="6">
         <v>43876</v>
@@ -652,7 +654,7 @@
         <v>43877</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="13">
         <v>1</v>
@@ -666,7 +668,7 @@
     </row>
     <row r="9" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6">
         <v>43877</v>
@@ -675,7 +677,7 @@
         <v>43879</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="13">
         <v>1</v>
